--- a/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
+    <sheet name="测试用例集合" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>SendMail01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +133,78 @@
   </si>
   <si>
     <t>close_browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126homepage01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststep01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言首页上的关键字是否包含“二维码登录”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMail01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一封带有附件的邮件给自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126mailhomepage01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,42 +695,138 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E24" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>